--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.020921-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.020921-1.xlsx_with_dialog_acts.xlsx
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1953,12 +1953,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2637,12 +2637,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2945,12 +2945,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3439,12 +3439,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3515,12 +3515,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3553,12 +3553,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4009,12 +4009,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4085,12 +4085,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4123,12 +4123,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4655,12 +4655,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4849,12 +4849,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5001,12 +5001,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5571,12 +5571,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5647,12 +5647,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5841,12 +5841,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7969,12 +7969,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8049,12 +8049,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9341,12 +9341,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11925,12 +11925,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12267,12 +12267,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12879,12 +12879,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13833,12 +13833,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14259,12 +14259,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14297,12 +14297,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14563,12 +14563,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14829,12 +14829,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15171,12 +15171,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15399,12 +15399,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15741,12 +15741,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15817,12 +15817,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15931,12 +15931,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16509,12 +16509,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16665,12 +16665,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16779,12 +16779,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16855,12 +16855,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
